--- a/data/trans_dic/P64D$bicicleta_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P64D$bicicleta_2023-Edad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.08898458610300396</v>
+        <v>0.08898458610300394</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02217298787984999</v>
+        <v>0.02222276143821731</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.0120124677991701</v>
+        <v>0.01220076309742668</v>
       </c>
     </row>
     <row r="6">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2556074532510788</v>
+        <v>0.2300448794661597</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.1370500567637112</v>
+        <v>0.1482427640552848</v>
       </c>
     </row>
     <row r="7">
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.005774071020935016</v>
+        <v>0.005709112581880454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005212820145842767</v>
+        <v>0.005216816227713481</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04596552656577661</v>
+        <v>0.03417413502354072</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03515153232537092</v>
+        <v>0.03393584554383537</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02794452905284289</v>
+        <v>0.02681898008991831</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>0.01743834361025717</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.01398191573794646</v>
+        <v>0.01398191573794645</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.01596838531083888</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.008193930952017942</v>
+        <v>0.008434957795267246</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.006061530772865888</v>
+        <v>0.00591790721210603</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.009623103962084377</v>
+        <v>0.00939962897073323</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03179896489660317</v>
+        <v>0.03268131854504629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02838167039210788</v>
+        <v>0.0266856601792381</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.026022124457578</v>
+        <v>0.02627794755146411</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01314283607086123</v>
+        <v>0.01255088018796694</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.004660807359298131</v>
+        <v>0.004589573162394239</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01061898015836776</v>
+        <v>0.01062095019824333</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04459583539345748</v>
+        <v>0.04161800212810607</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02110470034777048</v>
+        <v>0.02101619136370153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.027066487699792</v>
+        <v>0.02737557254887593</v>
       </c>
     </row>
     <row r="16">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.008871723576287715</v>
+        <v>0.008871723576287712</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.006150459037076154</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.002885783292674823</v>
+        <v>0.002870658032011857</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002590756788904546</v>
+        <v>0.002621964394419283</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02629320711906639</v>
+        <v>0.0212434104584092</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02140993006177918</v>
+        <v>0.01847037057214123</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01595372526347442</v>
+        <v>0.01733315347633299</v>
       </c>
     </row>
     <row r="19">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01362897283458133</v>
+        <v>0.01296473296099605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007115570315910978</v>
+        <v>0.007129485185654203</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01130035394062965</v>
+        <v>0.01160502882632028</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02972965084137843</v>
+        <v>0.03035942705031936</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01674358295999043</v>
+        <v>0.01659293274163633</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.02227899425208083</v>
+        <v>0.02247900702577365</v>
       </c>
     </row>
     <row r="22">
@@ -1018,11 +1018,11 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2324</v>
+        <v>2329</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>2361</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="7">
@@ -1033,11 +1033,11 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26793</v>
+        <v>24114</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>26939</v>
+        <v>29139</v>
       </c>
     </row>
     <row r="8">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1820</v>
+        <v>1799</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3707</v>
+        <v>3709</v>
       </c>
     </row>
     <row r="11">
@@ -1103,13 +1103,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18199</v>
+        <v>13530</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11077</v>
+        <v>10694</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>19870</v>
+        <v>19069</v>
       </c>
     </row>
     <row r="12">
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4396</v>
+        <v>4525</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2406</v>
+        <v>2349</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>8983</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="15">
@@ -1175,13 +1175,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>17060</v>
+        <v>17533</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11267</v>
+        <v>10594</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24292</v>
+        <v>24530</v>
       </c>
     </row>
     <row r="16">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>7144</v>
+        <v>6822</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2121</v>
+        <v>2088</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>10603</v>
+        <v>10605</v>
       </c>
     </row>
     <row r="19">
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>24240</v>
+        <v>22621</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9602</v>
+        <v>9562</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>27027</v>
+        <v>27335</v>
       </c>
     </row>
     <row r="20">
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1451</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="23">
@@ -1319,13 +1319,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8609</v>
+        <v>6955</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4983</v>
+        <v>4299</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8936</v>
+        <v>9709</v>
       </c>
     </row>
     <row r="24">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26007</v>
+        <v>24739</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10613</v>
+        <v>10634</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>38419</v>
+        <v>39454</v>
       </c>
     </row>
     <row r="27">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>56730</v>
+        <v>57932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>24974</v>
+        <v>24750</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>75743</v>
+        <v>76423</v>
       </c>
     </row>
     <row r="28">
